--- a/QtBlastAI/AI 시추공자료(2020~2022)/시추공시험발파_New230327.xlsx
+++ b/QtBlastAI/AI 시추공자료(2020~2022)/시추공시험발파_New230327.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12105" tabRatio="847" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="11925" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="편마암" sheetId="1" r:id="rId1"/>
@@ -1492,6 +1492,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,9 +1502,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3500,38 +3500,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="8"/>
             <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -18950,15 +18922,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="170"/>
+      <c r="H4" s="171"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
@@ -19054,7 +19026,7 @@
       <c r="C9" s="73">
         <v>3</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="28">
         <v>17189</v>
       </c>
@@ -19084,7 +19056,7 @@
       <c r="C10" s="73">
         <v>4</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="28">
         <v>8834</v>
       </c>
@@ -19114,7 +19086,7 @@
       <c r="C11" s="73">
         <v>5</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="28">
         <v>3541</v>
       </c>
@@ -19144,7 +19116,7 @@
       <c r="C12" s="73">
         <v>6</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="28">
         <v>5277</v>
       </c>
@@ -19175,7 +19147,7 @@
       <c r="C13" s="73">
         <v>7</v>
       </c>
-      <c r="D13" s="172"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="28">
         <v>5276</v>
       </c>
@@ -19267,7 +19239,7 @@
       <c r="C16" s="73">
         <v>10</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="28">
         <v>17189</v>
       </c>
@@ -19297,7 +19269,7 @@
       <c r="C17" s="73">
         <v>11</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="28">
         <v>8834</v>
       </c>
@@ -19327,7 +19299,7 @@
       <c r="C18" s="73">
         <v>12</v>
       </c>
-      <c r="D18" s="172"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="28">
         <v>3541</v>
       </c>
@@ -19357,7 +19329,7 @@
       <c r="C19" s="73">
         <v>13</v>
       </c>
-      <c r="D19" s="172"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="28">
         <v>5277</v>
       </c>
@@ -19387,7 +19359,7 @@
       <c r="C20" s="73">
         <v>14</v>
       </c>
-      <c r="D20" s="172"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="28">
         <v>5276</v>
       </c>
@@ -19473,7 +19445,7 @@
       <c r="C23" s="73">
         <v>17</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="28">
         <v>17189</v>
       </c>
@@ -19499,7 +19471,7 @@
       <c r="C24" s="73">
         <v>18</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="28">
         <v>8834</v>
       </c>
@@ -19527,7 +19499,7 @@
       <c r="C25" s="73">
         <v>19</v>
       </c>
-      <c r="D25" s="172"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="28">
         <v>3541</v>
       </c>
@@ -19555,7 +19527,7 @@
       <c r="C26" s="73">
         <v>20</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="28">
         <v>5277</v>
       </c>
@@ -19583,7 +19555,7 @@
       <c r="C27" s="73">
         <v>21</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="28">
         <v>5276</v>
       </c>
@@ -19675,7 +19647,7 @@
       <c r="C30" s="73">
         <v>24</v>
       </c>
-      <c r="D30" s="172"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="28">
         <v>17189</v>
       </c>
@@ -19703,7 +19675,7 @@
       <c r="C31" s="73">
         <v>25</v>
       </c>
-      <c r="D31" s="172"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="28">
         <v>8834</v>
       </c>
@@ -19733,7 +19705,7 @@
       <c r="C32" s="73">
         <v>26</v>
       </c>
-      <c r="D32" s="172"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="28">
         <v>3541</v>
       </c>
@@ -19763,7 +19735,7 @@
       <c r="C33" s="73">
         <v>27</v>
       </c>
-      <c r="D33" s="172"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28">
         <v>5277</v>
       </c>
@@ -19793,7 +19765,7 @@
       <c r="C34" s="73">
         <v>28</v>
       </c>
-      <c r="D34" s="172"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28">
         <v>5276</v>
       </c>
@@ -19879,7 +19851,7 @@
       <c r="C37" s="73">
         <v>31</v>
       </c>
-      <c r="D37" s="172"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28">
         <v>17189</v>
       </c>
@@ -19905,7 +19877,7 @@
       <c r="C38" s="73">
         <v>32</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28">
         <v>8834</v>
       </c>
@@ -19933,7 +19905,7 @@
       <c r="C39" s="73">
         <v>33</v>
       </c>
-      <c r="D39" s="172"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28">
         <v>3541</v>
       </c>
@@ -19962,7 +19934,7 @@
       <c r="C40" s="73">
         <v>34</v>
       </c>
-      <c r="D40" s="172"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28">
         <v>5277</v>
       </c>
@@ -19991,7 +19963,7 @@
       <c r="C41" s="73">
         <v>35</v>
       </c>
-      <c r="D41" s="172"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28">
         <v>5276</v>
       </c>
@@ -20081,7 +20053,7 @@
       <c r="C44" s="73">
         <v>3</v>
       </c>
-      <c r="D44" s="172"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28">
         <v>17189</v>
       </c>
@@ -20109,7 +20081,7 @@
       <c r="C45" s="73">
         <v>4</v>
       </c>
-      <c r="D45" s="172"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28">
         <v>5278</v>
       </c>
@@ -20139,7 +20111,7 @@
       <c r="C46" s="73">
         <v>5</v>
       </c>
-      <c r="D46" s="172"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28">
         <v>5277</v>
       </c>
@@ -20169,7 +20141,7 @@
       <c r="C47" s="73">
         <v>6</v>
       </c>
-      <c r="D47" s="172"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28">
         <v>5276</v>
       </c>
@@ -20259,7 +20231,7 @@
       <c r="C50" s="73">
         <v>9</v>
       </c>
-      <c r="D50" s="172"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28">
         <v>17189</v>
       </c>
@@ -20289,7 +20261,7 @@
       <c r="C51" s="73">
         <v>10</v>
       </c>
-      <c r="D51" s="172"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28">
         <v>5278</v>
       </c>
@@ -20319,7 +20291,7 @@
       <c r="C52" s="73">
         <v>11</v>
       </c>
-      <c r="D52" s="172"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28">
         <v>5277</v>
       </c>
@@ -20349,7 +20321,7 @@
       <c r="C53" s="73">
         <v>12</v>
       </c>
-      <c r="D53" s="172"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28">
         <v>5276</v>
       </c>
@@ -20441,7 +20413,7 @@
       <c r="C56" s="73">
         <v>15</v>
       </c>
-      <c r="D56" s="172"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28">
         <v>17189</v>
       </c>
@@ -20471,7 +20443,7 @@
       <c r="C57" s="73">
         <v>16</v>
       </c>
-      <c r="D57" s="172"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28">
         <v>5278</v>
       </c>
@@ -20499,7 +20471,7 @@
       <c r="C58" s="73">
         <v>17</v>
       </c>
-      <c r="D58" s="172"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28">
         <v>5277</v>
       </c>
@@ -20529,7 +20501,7 @@
       <c r="C59" s="73">
         <v>18</v>
       </c>
-      <c r="D59" s="172"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28">
         <v>5276</v>
       </c>
@@ -20621,7 +20593,7 @@
       <c r="C62" s="73">
         <v>21</v>
       </c>
-      <c r="D62" s="172"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28">
         <v>17189</v>
       </c>
@@ -20651,7 +20623,7 @@
       <c r="C63" s="73">
         <v>22</v>
       </c>
-      <c r="D63" s="172"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28">
         <v>5278</v>
       </c>
@@ -20681,7 +20653,7 @@
       <c r="C64" s="73">
         <v>23</v>
       </c>
-      <c r="D64" s="172"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28">
         <v>5277</v>
       </c>
@@ -20711,7 +20683,7 @@
       <c r="C65" s="73">
         <v>24</v>
       </c>
-      <c r="D65" s="172"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="28">
         <v>5276</v>
       </c>
@@ -20735,17 +20707,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D35:D41"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D35:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20775,15 +20747,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="170"/>
+      <c r="H4" s="171"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
@@ -22020,8 +21992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25270,8 +25242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
